--- a/performance.cutlass.xlsx
+++ b/performance.cutlass.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,15 +81,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>average running time/ms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>256 x 56 = 14436</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10x128 = 1280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average running time/ms</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +223,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,7 +3297,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3308,7 +3307,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,7 +3526,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3596,7 +3595,7 @@
         <v>82.914000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,15 +3620,15 @@
         <v>87.808999999999997</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
